--- a/TR-SLL FEA Analysis/Old Data/Torsional-Stiffness-Test.xlsx
+++ b/TR-SLL FEA Analysis/Old Data/Torsional-Stiffness-Test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tsclient\D\Git-First\HSA-Gripper\TR-SLL FEA Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Srivatsan\HSA-gripper-files\TR-SLL FEA Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8A3B7B-4A62-44BB-8320-EA8D8172F220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDED8DA8-18FE-4EA2-83B1-083696AE1207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1641,28 +1641,28 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7.7545843960243159</c:v>
+                  <c:v>10.41460110563666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.9625026472499858</c:v>
+                  <c:v>23.063597398133563</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.859119410916808</c:v>
+                  <c:v>44.409885361617228</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.062526116143504</c:v>
+                  <c:v>76.207561942208812</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.425022710772346</c:v>
+                  <c:v>120.55900877510722</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.314434461131242</c:v>
+                  <c:v>179.37494704460386</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.514870235602931</c:v>
+                  <c:v>254.60786986350561</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48.249759283407514</c:v>
+                  <c:v>348.1875900122202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3013,16 +3013,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>473075</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1120775</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>231775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3341,7 +3341,7 @@
   <dimension ref="A1:X103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3370,7 +3370,47 @@
   <sheetData>
     <row r="1" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>11</v>
+      </c>
+      <c r="L3" s="1">
+        <v>12</v>
+      </c>
+      <c r="M3">
+        <v>13</v>
+      </c>
+    </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>0</v>
@@ -3513,16 +3553,16 @@
       <c r="U8" s="19">
         <v>0.3</v>
       </c>
-      <c r="V8" s="19">
-        <v>9.4</v>
+      <c r="V8" s="15">
+        <v>6.5091481586731099</v>
       </c>
       <c r="W8" s="15">
         <f>ASIN(V8/SQRT($B$6^2+V8^2))</f>
-        <v>0.64477988047476031</v>
+        <v>0.48009519992982419</v>
       </c>
       <c r="X8" s="15">
         <f>5/W8</f>
-        <v>7.7545843960243159</v>
+        <v>10.41460110563666</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3569,16 +3609,16 @@
       <c r="U9" s="19">
         <v>0.4</v>
       </c>
-      <c r="V9" s="19">
-        <v>7.8</v>
+      <c r="V9" s="15">
+        <v>2.7531656455998399</v>
       </c>
       <c r="W9" s="15">
         <f t="shared" ref="W9:W15" si="6">ASIN(V9/SQRT($B$6^2+V9^2))</f>
-        <v>0.55787989100724866</v>
+        <v>0.21679185227212769</v>
       </c>
       <c r="X9" s="15">
         <f t="shared" ref="X9:X15" si="7">5/W9</f>
-        <v>8.9625026472499858</v>
+        <v>23.063597398133563</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3628,16 +3668,16 @@
       <c r="U10" s="19">
         <v>0.5</v>
       </c>
-      <c r="V10" s="19">
-        <v>6.2</v>
+      <c r="V10" s="15">
+        <v>1.4133211062933</v>
       </c>
       <c r="W10" s="15">
         <f t="shared" si="6"/>
-        <v>0.46044249177087393</v>
+        <v>0.11258754575217667</v>
       </c>
       <c r="X10" s="15">
         <f t="shared" si="7"/>
-        <v>10.859119410916808</v>
+        <v>44.409885361617228</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3693,16 +3733,16 @@
       <c r="U11" s="19">
         <v>0.6</v>
       </c>
-      <c r="V11" s="19">
-        <v>5.5</v>
+      <c r="V11" s="15">
+        <v>0.82130742079116104</v>
       </c>
       <c r="W11" s="15">
         <f t="shared" si="6"/>
-        <v>0.41450687458478591</v>
+        <v>6.5610286860924599E-2</v>
       </c>
       <c r="X11" s="15">
         <f t="shared" si="7"/>
-        <v>12.062526116143504</v>
+        <v>76.207561942208812</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3766,16 +3806,16 @@
       <c r="U12" s="19">
         <v>0.7</v>
       </c>
-      <c r="V12" s="19">
-        <v>4.2</v>
+      <c r="V12" s="15">
+        <v>0.51871576955764898</v>
       </c>
       <c r="W12" s="15">
         <f t="shared" si="6"/>
-        <v>0.3241486313344718</v>
+        <v>4.1473466402888924E-2</v>
       </c>
       <c r="X12" s="15">
         <f t="shared" si="7"/>
-        <v>15.425022710772346</v>
+        <v>120.55900877510722</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3839,16 +3879,16 @@
       <c r="U13" s="19">
         <v>0.8</v>
       </c>
-      <c r="V13" s="19">
-        <v>3.5</v>
+      <c r="V13" s="15">
+        <v>0.34852242964691699</v>
       </c>
       <c r="W13" s="15">
         <f t="shared" si="6"/>
-        <v>0.2730087030867106</v>
+        <v>2.7874572689109624E-2</v>
       </c>
       <c r="X13" s="15">
         <f t="shared" si="7"/>
-        <v>18.314434461131242</v>
+        <v>179.37494704460386</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3909,16 +3949,16 @@
       <c r="U14" s="19">
         <v>0.9</v>
       </c>
-      <c r="V14" s="19">
-        <v>2</v>
+      <c r="V14" s="15">
+        <v>0.24550708390940801</v>
       </c>
       <c r="W14" s="15">
         <f t="shared" si="6"/>
-        <v>0.15865526218640139</v>
+        <v>1.9638041835393708E-2</v>
       </c>
       <c r="X14" s="15">
         <f t="shared" si="7"/>
-        <v>31.514870235602931</v>
+        <v>254.60786986350561</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3965,16 +4005,16 @@
       <c r="U15" s="19">
         <v>1</v>
       </c>
-      <c r="V15" s="19">
-        <v>1.3</v>
+      <c r="V15" s="15">
+        <v>0.179513280271033</v>
       </c>
       <c r="W15" s="15">
         <f t="shared" si="6"/>
-        <v>0.10362745999687167</v>
+        <v>1.4360075268117733E-2</v>
       </c>
       <c r="X15" s="15">
         <f t="shared" si="7"/>
-        <v>48.249759283407514</v>
+        <v>348.1875900122202</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
